--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value31.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value31.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.019842574856598</v>
+        <v>2.423895359039307</v>
       </c>
       <c r="B1">
-        <v>1.067816356569577</v>
+        <v>2.530923128128052</v>
       </c>
       <c r="C1">
-        <v>1.181053122477213</v>
+        <v>2.908759593963623</v>
       </c>
       <c r="D1">
-        <v>1.77560040020365</v>
+        <v>4.602647304534912</v>
       </c>
       <c r="E1">
-        <v>3.497646795987326</v>
+        <v>4.5048508644104</v>
       </c>
     </row>
   </sheetData>
